--- a/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -252,10 +252,22 @@
     <t>7/6,11/2023</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>7/4,18,19/2022</t>
+    <t>UT(0-0-7)</t>
+  </si>
+  <si>
+    <t>6/15-17/2022</t>
+  </si>
+  <si>
+    <t>UT(0-0-8)</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>7/18,19/2022</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1130,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1173,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1237,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1297,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1363,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1426,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1524,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1583,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1648,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1691,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1766,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1952,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +2018,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2076,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2142,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2198,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2273,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2316,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2382,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2438,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2536,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2599,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2665,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3031,12 +3043,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A57" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,7 +3211,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43.5</v>
+        <v>45.968000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3209,7 +3221,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.5</v>
+        <v>51</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4129,36 +4141,38 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="38">
-        <v>1</v>
-      </c>
+      <c r="A54" s="39">
+        <v>44593</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="38"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="48">
-        <v>44672</v>
-      </c>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
-        <v>44593</v>
-      </c>
-      <c r="B55" s="20"/>
+        <v>44621</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
-      <c r="D55" s="38"/>
+      <c r="D55" s="38">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
@@ -4172,7 +4186,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4192,7 +4206,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4212,9 +4226,11 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
-        <v>44682</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
@@ -4225,45 +4241,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H58" s="38"/>
+      <c r="H58" s="38">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="48">
+        <v>44726</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
-        <v>44713</v>
-      </c>
+      <c r="A59" s="39"/>
       <c r="B59" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="38">
+        <v>1</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="38">
-        <v>1</v>
-      </c>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="38"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="48">
-        <v>44726</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
@@ -4274,45 +4290,43 @@
       <c r="H60" s="38"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="48">
-        <v>44672</v>
+      <c r="K60" s="48" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="39">
-        <v>44743</v>
-      </c>
+      <c r="A61" s="39"/>
       <c r="B61" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C61" s="13"/>
       <c r="D61" s="38">
-        <v>3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="K61" s="48"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
-        <v>44774</v>
-      </c>
-      <c r="B62" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
-      <c r="D62" s="38"/>
+      <c r="D62" s="38">
+        <v>1</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
@@ -4322,41 +4336,39 @@
       <c r="H62" s="38"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="48">
+        <v>44746</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="39">
-        <v>44805</v>
-      </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A63" s="39"/>
+      <c r="B63" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="13"/>
       <c r="D63" s="38"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
-        <v>44835</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>61</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
-      <c r="D64" s="38">
-        <v>1</v>
-      </c>
+      <c r="D64" s="38"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
@@ -4366,13 +4378,11 @@
       <c r="H64" s="38"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="48">
-        <v>44855</v>
-      </c>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4392,16 +4402,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
       <c r="D66" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
@@ -4412,22 +4422,24 @@
       <c r="H66" s="38"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20" t="s">
-        <v>63</v>
+      <c r="K66" s="48">
+        <v>44855</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
-        <v>64</v>
+      <c r="A67" s="39">
+        <v>44866</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="38"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="38"/>
       <c r="I67" s="9"/>
@@ -4436,15 +4448,17 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="38"/>
+      <c r="D68" s="38">
+        <v>3</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -4454,15 +4468,15 @@
       <c r="H68" s="38"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="48">
-        <v>44935</v>
+      <c r="K68" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="A69" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="38"/>
       <c r="E69" s="9"/>
@@ -4471,21 +4485,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="38">
-        <v>1</v>
-      </c>
+      <c r="H69" s="38"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="48">
-        <v>44950</v>
-      </c>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -4497,31 +4507,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H70" s="38">
-        <v>1</v>
-      </c>
+      <c r="H70" s="38"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="48">
-        <v>44958</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="39">
-        <v>44986</v>
-      </c>
+      <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C71" s="13"/>
       <c r="D71" s="38"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H71" s="38">
         <v>1</v>
@@ -4529,66 +4533,74 @@
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="48">
-        <v>44998</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="38">
-        <v>2</v>
-      </c>
+      <c r="D72" s="38"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H72" s="38"/>
+      <c r="H72" s="38">
+        <v>1</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20" t="s">
-        <v>67</v>
+      <c r="K72" s="48">
+        <v>44958</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="39">
+        <v>44986</v>
+      </c>
       <c r="B73" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="38"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20" t="s">
-        <v>68</v>
+      <c r="K73" s="48">
+        <v>44998</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="38"/>
+      <c r="D74" s="38">
+        <v>2</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4598,24 +4610,22 @@
       <c r="H74" s="38"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="39">
-        <v>45078</v>
-      </c>
+      <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="38"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="38">
         <v>2</v>
@@ -4623,57 +4633,59 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="13"/>
+      <c r="A76" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="38"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="38">
-        <v>1</v>
-      </c>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="38"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="48">
-        <v>45107</v>
-      </c>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="38"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="38"/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H77" s="38">
+        <v>2</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="48">
-        <v>45128</v>
+      <c r="K77" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="38"/>
@@ -4684,37 +4696,43 @@
         <v/>
       </c>
       <c r="H78" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="48" t="s">
-        <v>71</v>
+      <c r="K78" s="48">
+        <v>45107</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="38"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="38"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="48">
+        <v>45128</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="39">
-        <v>45170</v>
-      </c>
-      <c r="B80" s="20"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="38"/>
       <c r="E80" s="9"/>
@@ -4723,32 +4741,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="38"/>
+      <c r="H80" s="38">
+        <v>2</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="48" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="38"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="38"/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="38">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="48">
+        <v>45163</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4766,7 +4796,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4784,7 +4814,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4802,7 +4832,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4820,7 +4850,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4838,7 +4868,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4856,7 +4886,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4874,7 +4904,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4892,7 +4922,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4910,7 +4940,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4928,7 +4958,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4946,7 +4976,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4964,7 +4994,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4982,7 +5012,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5000,7 +5030,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5018,7 +5048,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5036,7 +5066,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5054,7 +5084,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5072,7 +5102,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5090,7 +5120,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5108,7 +5138,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5126,7 +5156,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5144,7 +5174,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5162,7 +5192,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5180,7 +5210,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5198,7 +5228,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5216,7 +5246,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5234,7 +5264,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5252,7 +5282,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5270,7 +5300,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5288,7 +5318,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5306,7 +5336,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5324,7 +5354,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5342,7 +5372,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5360,7 +5390,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5378,7 +5408,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5396,7 +5426,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5414,7 +5444,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5432,7 +5462,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5450,7 +5480,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5468,7 +5498,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5486,7 +5516,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5504,7 +5534,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5522,7 +5552,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5540,7 +5570,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5557,7 +5587,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
+      <c r="A127" s="39">
+        <v>46539</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="38"/>
@@ -5573,7 +5605,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
+      <c r="A128" s="39">
+        <v>46569</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="38"/>
@@ -5829,20 +5863,52 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="42"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="38"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="42"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="38"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="38"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="42"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5890,7 +5956,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5954,10 +6020,12 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3">
+        <v>8</v>
+      </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J3" s="1">
         <v>18</v>
@@ -6008,7 +6076,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>93</v>
+        <v>96.968000000000004</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>10/26,31/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>01/02,04/2024</t>
   </si>
 </sst>
 </file>
@@ -2674,7 +2680,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K150" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3052,12 +3058,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K150"/>
+  <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <selection activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3220,7 +3226,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.468000000000004</v>
+        <v>47.968000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3230,7 +3236,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.5</v>
+        <v>50</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4902,13 +4908,15 @@
       <c r="B87" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="38"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="38">
         <v>1</v>
@@ -4945,33 +4953,36 @@
       <c r="A89" s="39">
         <v>45261</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="38"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="38"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="39">
-        <v>45292</v>
+      <c r="A90" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="38"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G90" s="13"/>
       <c r="H90" s="38"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
@@ -4979,9 +4990,11 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B91" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="38"/>
       <c r="E91" s="9"/>
@@ -4990,14 +5003,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="38"/>
+      <c r="H91" s="38">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="48">
+        <v>45289</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5015,7 +5032,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5033,7 +5050,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5051,7 +5068,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5069,7 +5086,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5087,7 +5104,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5105,7 +5122,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5123,7 +5140,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5141,7 +5158,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5159,7 +5176,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5177,7 +5194,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5195,7 +5212,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5213,7 +5230,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5231,7 +5248,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5249,7 +5266,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5267,7 +5284,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5285,7 +5302,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5303,7 +5320,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5321,7 +5338,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5339,7 +5356,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5357,7 +5374,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5375,7 +5392,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5393,7 +5410,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5411,7 +5428,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5429,7 +5446,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5447,7 +5464,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5465,7 +5482,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5483,7 +5500,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5501,7 +5518,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5519,7 +5536,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5537,7 +5554,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5555,7 +5572,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5573,7 +5590,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5591,7 +5608,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5609,7 +5626,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5627,7 +5644,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5645,7 +5662,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5663,7 +5680,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5681,7 +5698,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5699,7 +5716,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5717,7 +5734,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5734,7 +5751,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
+      <c r="A133" s="39">
+        <v>46569</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="38"/>
@@ -6006,20 +6025,36 @@
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="42"/>
+      <c r="A150" s="39"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="38"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H150" s="42"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="38"/>
       <c r="I150" s="9"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="15"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="42"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6187,7 +6222,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>93.968000000000004</v>
+        <v>97.968000000000004</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>01/02,04/2024</t>
+  </si>
+  <si>
+    <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
   </si>
 </sst>
 </file>
@@ -2680,7 +2686,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K153" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3058,12 +3064,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K151"/>
+  <dimension ref="A2:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="E6" sqref="E6"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3232,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.968000000000004</v>
+        <v>46.963999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4901,130 +4907,128 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
-        <v>45231</v>
-      </c>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
       <c r="B87" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D87" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H87" s="38">
-        <v>1</v>
-      </c>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="38"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="48">
-        <v>45238</v>
-      </c>
+      <c r="K87" s="48"/>
     </row>
     <row r="88" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="39">
+        <v>45231</v>
+      </c>
       <c r="B88" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="38">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="38"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="38"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="38">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="48">
-        <v>45288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="39">
-        <v>45261</v>
-      </c>
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D89" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="38">
+        <v>1</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="38"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="20"/>
+      <c r="K89" s="48">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="38"/>
+      <c r="D90" s="38">
+        <v>0.504</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H90" s="38"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="48"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="38"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="38">
-        <v>1</v>
-      </c>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H91" s="38"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="48">
-        <v>45289</v>
+      <c r="K91" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="39">
-        <v>45323</v>
+      <c r="A92" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="38"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G92" s="13"/>
       <c r="H92" s="38"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
@@ -5032,9 +5036,11 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B93" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="38"/>
       <c r="E93" s="9"/>
@@ -5043,14 +5049,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="38"/>
+      <c r="H93" s="38">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="48">
+        <v>45289</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5068,7 +5078,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5086,7 +5096,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5104,7 +5114,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5122,7 +5132,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5140,7 +5150,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5158,7 +5168,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5176,7 +5186,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5194,7 +5204,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5212,7 +5222,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5230,7 +5240,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5248,7 +5258,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5266,7 +5276,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5284,7 +5294,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5302,7 +5312,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5320,7 +5330,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5338,7 +5348,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5356,7 +5366,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5374,7 +5384,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5392,7 +5402,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5410,7 +5420,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5428,7 +5438,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5446,7 +5456,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5464,7 +5474,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5482,7 +5492,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5500,7 +5510,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5518,7 +5528,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5536,7 +5546,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5554,7 +5564,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5572,7 +5582,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5590,7 +5600,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5608,7 +5618,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5626,7 +5636,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5644,7 +5654,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5662,7 +5672,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5680,7 +5690,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5698,7 +5708,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5716,7 +5726,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5734,7 +5744,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5752,7 +5762,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5769,7 +5779,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
+      <c r="A134" s="39">
+        <v>46539</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="38"/>
@@ -5785,7 +5797,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
+      <c r="A135" s="39">
+        <v>46569</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="38"/>
@@ -6041,20 +6055,52 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="42"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="38"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="42"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="38"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="15"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="39"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="38"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="42"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6165,13 +6211,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3">
-        <v>8</v>
-      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.7000000000000001E-2</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>18</v>
@@ -6222,7 +6268,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>97.968000000000004</v>
+        <v>96.963999999999999</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-13)</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2701,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K153" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3064,12 +3079,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K153"/>
+  <dimension ref="A2:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="E6" sqref="E6"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3232,7 +3247,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.963999999999999</v>
+        <v>43.914999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4558,34 +4573,28 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="39">
-        <v>44958</v>
-      </c>
+      <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="38"/>
+        <v>88</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="38">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H72" s="38">
-        <v>1</v>
-      </c>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="38"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="48">
-        <v>44958</v>
-      </c>
+      <c r="K72" s="48"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>49</v>
@@ -4606,66 +4615,68 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="48">
-        <v>44998</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="38">
-        <v>2</v>
-      </c>
+      <c r="D74" s="38"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H74" s="38"/>
+      <c r="H74" s="38">
+        <v>1</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>67</v>
+      <c r="K74" s="48">
+        <v>44998</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="38"/>
+      <c r="D75" s="38">
+        <v>1</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H75" s="38">
-        <v>2</v>
-      </c>
+      <c r="H75" s="38"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="K75" s="48"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B76" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="38"/>
+      <c r="D76" s="38">
+        <v>2</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
@@ -4675,24 +4686,22 @@
       <c r="H76" s="38"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
-        <v>45078</v>
-      </c>
+      <c r="A77" s="39"/>
       <c r="B77" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="38"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="38">
         <v>2</v>
@@ -4700,37 +4709,39 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+      <c r="A78" s="39">
+        <v>45047</v>
+      </c>
       <c r="B78" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="38"/>
+        <v>87</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="38">
-        <v>1</v>
-      </c>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="38"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="48">
-        <v>45107</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -4742,17 +4753,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="38"/>
+      <c r="H79" s="38">
+        <v>2</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="48">
-        <v>45128</v>
+      <c r="K79" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="38"/>
@@ -4763,45 +4776,41 @@
         <v/>
       </c>
       <c r="H80" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="48" t="s">
-        <v>71</v>
+      <c r="K80" s="48">
+        <v>45107</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A81" s="39"/>
       <c r="B81" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H81" s="38">
-        <v>1</v>
-      </c>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="38"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="48">
-        <v>45163</v>
-      </c>
+      <c r="K81" s="48"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <v>45170</v>
-      </c>
-      <c r="B82" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
@@ -4815,40 +4824,40 @@
       <c r="H82" s="38"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="48">
+        <v>45128</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="39">
-        <v>45200</v>
-      </c>
+      <c r="A83" s="39"/>
       <c r="B83" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C83" s="13"/>
       <c r="D83" s="38"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H83" s="38"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="38">
+        <v>2</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="48">
-        <v>45218</v>
+      <c r="K83" s="48" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="20" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
@@ -4859,80 +4868,84 @@
       <c r="H84" s="38"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="48" t="s">
-        <v>78</v>
-      </c>
+      <c r="K84" s="48"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
+      <c r="A85" s="39">
+        <v>45139</v>
+      </c>
       <c r="B85" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="38"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="48" t="s">
-        <v>79</v>
+      <c r="K85" s="48">
+        <v>45163</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="38"/>
+      <c r="D86" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="38">
-        <v>2</v>
-      </c>
+      <c r="H86" s="38"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="48" t="s">
-        <v>80</v>
-      </c>
+      <c r="K86" s="48"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="39">
+        <v>45170</v>
+      </c>
       <c r="B87" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="38">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="38"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="48"/>
-    </row>
-    <row r="88" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="20"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -4944,23 +4957,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H88" s="38">
-        <v>1</v>
-      </c>
+      <c r="H88" s="38"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="48">
-        <v>45238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
@@ -4971,83 +4982,90 @@
       <c r="H89" s="38"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="48">
-        <v>45288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K89" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="38">
-        <v>0.504</v>
-      </c>
+      <c r="D90" s="38"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="38"/>
+      <c r="H90" s="38">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="48"/>
+      <c r="K90" s="48" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="39">
-        <v>45261</v>
-      </c>
+      <c r="A91" s="39"/>
       <c r="B91" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="38"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H91" s="38"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="38">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20" t="s">
-        <v>82</v>
+      <c r="K91" s="48" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="38"/>
+      <c r="D92" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H92" s="38"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="48"/>
+    </row>
+    <row r="93" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="38"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="38">
         <v>1</v>
@@ -5055,16 +5073,18 @@
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
       <c r="K93" s="48">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B94" s="20"/>
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="38"/>
+      <c r="D94" s="38">
+        <v>1</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -5074,15 +5094,19 @@
       <c r="H94" s="38"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B95" s="20"/>
+      <c r="K94" s="48">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="38"/>
+      <c r="D95" s="38">
+        <v>0.504</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
@@ -5092,33 +5116,41 @@
       <c r="H95" s="38"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="48"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="38"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="38"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B97" s="20"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="38"/>
+      <c r="D97" s="38">
+        <v>2.700000000000001E-2</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
@@ -5131,18 +5163,15 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="39">
-        <v>45444</v>
+      <c r="A98" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="38"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G98" s="13"/>
       <c r="H98" s="38"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
@@ -5150,9 +5179,11 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45474</v>
-      </c>
-      <c r="B99" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="38"/>
       <c r="E99" s="9"/>
@@ -5161,14 +5192,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="38"/>
+      <c r="H99" s="38">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="48">
+        <v>45289</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5186,7 +5221,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5204,7 +5239,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5222,7 +5257,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5240,7 +5275,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5258,7 +5293,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>45658</v>
+        <v>45474</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5276,7 +5311,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>45689</v>
+        <v>45505</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5294,7 +5329,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>45717</v>
+        <v>45536</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5312,7 +5347,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5330,7 +5365,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>45778</v>
+        <v>45597</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5348,7 +5383,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>45809</v>
+        <v>45627</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5366,7 +5401,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>45839</v>
+        <v>45658</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5384,7 +5419,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>45870</v>
+        <v>45689</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5402,7 +5437,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>45901</v>
+        <v>45717</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5420,7 +5455,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5438,7 +5473,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>45962</v>
+        <v>45778</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5456,7 +5491,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5474,7 +5509,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46023</v>
+        <v>45839</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5492,7 +5527,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46054</v>
+        <v>45870</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5510,7 +5545,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46082</v>
+        <v>45901</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5528,7 +5563,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46113</v>
+        <v>45931</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5546,7 +5581,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46143</v>
+        <v>45962</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5564,7 +5599,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46174</v>
+        <v>45992</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5582,7 +5617,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46204</v>
+        <v>46023</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5600,7 +5635,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
-        <v>46235</v>
+        <v>46054</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5618,7 +5653,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
-        <v>46266</v>
+        <v>46082</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5636,7 +5671,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
-        <v>46296</v>
+        <v>46113</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5654,7 +5689,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
-        <v>46327</v>
+        <v>46143</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5672,7 +5707,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
-        <v>46357</v>
+        <v>46174</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5690,7 +5725,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
-        <v>46388</v>
+        <v>46204</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5708,7 +5743,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
-        <v>46419</v>
+        <v>46235</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5726,7 +5761,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
-        <v>46447</v>
+        <v>46266</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5744,7 +5779,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
-        <v>46478</v>
+        <v>46296</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5762,7 +5797,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
-        <v>46508</v>
+        <v>46327</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5780,7 +5815,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
-        <v>46539</v>
+        <v>46357</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5798,7 +5833,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
-        <v>46569</v>
+        <v>46388</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5815,7 +5850,9 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
+      <c r="A136" s="39">
+        <v>46419</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="38"/>
@@ -5831,7 +5868,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
+      <c r="A137" s="39">
+        <v>46447</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="38"/>
@@ -5847,7 +5886,9 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
+      <c r="A138" s="39">
+        <v>46478</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="38"/>
@@ -5863,7 +5904,9 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
+      <c r="A139" s="39">
+        <v>46508</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="38"/>
@@ -5879,7 +5922,9 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
+      <c r="A140" s="39">
+        <v>46539</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="38"/>
@@ -5895,7 +5940,9 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
+      <c r="A141" s="39">
+        <v>46569</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="38"/>
@@ -6087,20 +6134,116 @@
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="42"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="38"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H153" s="42"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="38"/>
       <c r="I153" s="9"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="15"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="39"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="38"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="39"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="38"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="38"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="39"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="38"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="38"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="39"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="38"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="38"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="39"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="38"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="40"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="42"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6211,13 +6354,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3"/>
+      <c r="E3"/>
+      <c r="F3">
+        <v>13</v>
+      </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.5</v>
+        <v>2.700000000000001E-2</v>
       </c>
       <c r="J3" s="1">
         <v>18</v>
@@ -6268,7 +6411,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>96.963999999999999</v>
+        <v>93.914999999999992</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
